--- a/results/tables/Table2.xlsx
+++ b/results/tables/Table2.xlsx
@@ -1,181 +1,183 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronwright/Documents/GitHub/aaronwriight/extended_language_network/results/tables/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7A353E-5278-9F42-A8D6-4888A7F70C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="60300" yWindow="5440" windowWidth="33040" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
-  <si>
-    <t xml:space="preserve">Atlas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lobe(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hemisphere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parcels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DKT (Selective)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frontal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caudal Middle Frontal, Lateral Orbitofrontal, Medial Orbitofrontal, Pars Opercularis, Pars Orbitalis, Pars Triangularis, Precentral, Superior Frontal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medial Orbitofrontal, Pars Opercularis, Pars Triangularis, Precentral, Superior Frontal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parietal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postcentral, Supramarginal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temporal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inferior Temporal, Middle Temporal, Superior Temporal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle Temporal, Superior Temporal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOCortical (Selective)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frontal Medial Cortex, Frontal Operculum Cortex, Frontal Orbital Cortex, Frontal Pole, Inf. Frontal Gyrus Pars Opercularis, Inf. Frontal Gyrus Pars Triangularis, Juxtapositional Lobule Cortex, Mid. Frontal Gyrus, Precentral Gyrus, Sup. Frontal Gyrus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frontal Medial Cortex, Frontal Orbital Cortex, Inf. Frontal Gyrus Pars Opercularis, Inf. Frontal Gyrus Pars Triangularis, Juxtapositional Lobule Cortex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angular Gyrus, Central Opercular Cortex, Parietal Operculum Cortex, Supramarginal Gyrus Post.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angular Gyrus, Supramarginal Gyrus Post.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inf. Temporal Gyrus Ant., Inf. Temporal Gyrus Post., Mid. Temporal Gyrus Ant., Mid. Temporal Gyrus Post., Mid. Temporal Gyrus Temporooccipital, Planum Polare, Planum Temporale, Sup. Temporal Gyrus Ant., Sup. Temporal Gyrus Post., Temporal Fusiform Cortex Ant., Temporal Fusiform Cortex Post., Temporal Pole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inf. Temporal Gyrus Ant., Mid. Temporal Gyrus Ant., Mid. Temporal Gyrus Post., Mid. Temporal Gyrus Temporooccipital, Planum Temporale, Sup. Temporal Gyrus Ant., Sup. Temporal Gyrus Post., Temporal Fusiform Cortex Ant., Temporal Pole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glasser (Selective)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10D, 10R, 10V, 4, 44, 45, 47L, 47M, 47S, 55B, 6R, 8AV, 8BL, 8BM, 9A, 9M, 9P, FEF, FOP1, FOP4º, FOP5, IFJA, IFSA, IFSP, OP2-3†, OP4º, PEF, S32º, SFL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10V, 44, 45, 47M, 55B, 8BL, 9M, IFJA, IFSA, IFSP, OFC, SFL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Limbic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31PDº, 31PV, H, PEECº, PIRº, POFC, S32º</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occipital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PGI†, PHTº, TPOJ3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHTº, TPOJ3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31PDº, 3B, OP2-3†, OP4º, PF, PFCM, PFOP, PGI†, PSLº</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A4, A5, FOP4º, OP2-3†, PBELT, PEECº, PGI†, PHTº, PI, PIRº, PSLº, RI, STGA, STSDA, STSDP, STSVA, STSVP, STV, TA2, TE1A, TE1M, TE1P, TE2P, TF, TGD, TGV, TPOJ1, TPOJ2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A4, A5, PHTº, STGA, STSDA, STSDP, STSVA, STSVP, STV, TA2, TE1A, TE1M, TE1P, TGD, TGV, TPOJ1, TPOJ2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOSubcortical (Selective)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Left Amygdala, Left Hippocampus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Right Amygdala, Right Hippocampus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOCortical (Exclusive Responsive)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precentral Gyrus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lat. Occipital Cortex Inf.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supramarginal Gyrus Ant.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inf. Temporal Gyrus Temporooccipital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glasser (Exclusive Responsive)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6D, 6V, 8C, I6-8, IFJP, P9-46V, SCEF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6R, 6V, FEF, IFJP, PEF, SCEF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FST, MST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHA3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOSubcortical (Exclusive Responsive)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Left Thalamus</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="46">
+  <si>
+    <t>Atlas</t>
+  </si>
+  <si>
+    <t>Lobe(s)</t>
+  </si>
+  <si>
+    <t>Hemisphere</t>
+  </si>
+  <si>
+    <t>Parcels</t>
+  </si>
+  <si>
+    <t>DKT (Selective)</t>
+  </si>
+  <si>
+    <t>Frontal</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Caudal Middle Frontal, Lateral Orbitofrontal, Medial Orbitofrontal, Pars Opercularis, Pars Orbitalis, Pars Triangularis, Precentral, Superior Frontal</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Medial Orbitofrontal, Pars Opercularis, Pars Triangularis, Precentral, Superior Frontal</t>
+  </si>
+  <si>
+    <t>Parietal</t>
+  </si>
+  <si>
+    <t>Postcentral, Supramarginal</t>
+  </si>
+  <si>
+    <t>Temporal</t>
+  </si>
+  <si>
+    <t>Inferior Temporal, Middle Temporal, Superior Temporal</t>
+  </si>
+  <si>
+    <t>Middle Temporal, Superior Temporal</t>
+  </si>
+  <si>
+    <t>HOCortical (Selective)</t>
+  </si>
+  <si>
+    <t>Frontal Medial Cortex, Frontal Operculum Cortex, Frontal Orbital Cortex, Frontal Pole, Inf. Frontal Gyrus Pars Opercularis, Inf. Frontal Gyrus Pars Triangularis, Juxtapositional Lobule Cortex, Mid. Frontal Gyrus, Precentral Gyrus, Sup. Frontal Gyrus</t>
+  </si>
+  <si>
+    <t>Frontal Medial Cortex, Frontal Orbital Cortex, Inf. Frontal Gyrus Pars Opercularis, Inf. Frontal Gyrus Pars Triangularis, Juxtapositional Lobule Cortex</t>
+  </si>
+  <si>
+    <t>Angular Gyrus, Central Opercular Cortex, Parietal Operculum Cortex, Supramarginal Gyrus Post.</t>
+  </si>
+  <si>
+    <t>Angular Gyrus, Supramarginal Gyrus Post.</t>
+  </si>
+  <si>
+    <t>Inf. Temporal Gyrus Ant., Inf. Temporal Gyrus Post., Mid. Temporal Gyrus Ant., Mid. Temporal Gyrus Post., Mid. Temporal Gyrus Temporooccipital, Planum Polare, Planum Temporale, Sup. Temporal Gyrus Ant., Sup. Temporal Gyrus Post., Temporal Fusiform Cortex Ant., Temporal Fusiform Cortex Post., Temporal Pole</t>
+  </si>
+  <si>
+    <t>Inf. Temporal Gyrus Ant., Mid. Temporal Gyrus Ant., Mid. Temporal Gyrus Post., Mid. Temporal Gyrus Temporooccipital, Planum Temporale, Sup. Temporal Gyrus Ant., Sup. Temporal Gyrus Post., Temporal Fusiform Cortex Ant., Temporal Pole</t>
+  </si>
+  <si>
+    <t>Glasser (Selective)</t>
+  </si>
+  <si>
+    <t>10D, 10R, 10V, 4, 44, 45, 47L, 47M, 47S, 55B, 6R, 8AV, 8BL, 8BM, 9A, 9M, 9P, FEF, FOP1, FOP4º, FOP5, IFJA, IFSA, IFSP, OP2-3†, OP4º, PEF, S32º, SFL</t>
+  </si>
+  <si>
+    <t>10V, 44, 45, 47M, 55B, 8BL, 9M, IFJA, IFSA, IFSP, OFC, SFL</t>
+  </si>
+  <si>
+    <t>Limbic</t>
+  </si>
+  <si>
+    <t>31PDº, 31PV, H, PEECº, PIRº, POFC, S32º</t>
+  </si>
+  <si>
+    <t>Occipital</t>
+  </si>
+  <si>
+    <t>PGI†, PHTº, TPOJ3</t>
+  </si>
+  <si>
+    <t>PHTº, TPOJ3</t>
+  </si>
+  <si>
+    <t>31PDº, 3B, OP2-3†, OP4º, PF, PFCM, PFOP, PGI†, PSLº</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>A4, A5, FOP4º, OP2-3†, PBELT, PEECº, PGI†, PHTº, PI, PIRº, PSLº, RI, STGA, STSDA, STSDP, STSVA, STSVP, STV, TA2, TE1A, TE1M, TE1P, TE2P, TF, TGD, TGV, TPOJ1, TPOJ2</t>
+  </si>
+  <si>
+    <t>A4, A5, PHTº, STGA, STSDA, STSDP, STSVA, STSVP, STV, TA2, TE1A, TE1M, TE1P, TGD, TGV, TPOJ1, TPOJ2</t>
+  </si>
+  <si>
+    <t>HOCortical (Exclusive Responsive)</t>
+  </si>
+  <si>
+    <t>Precentral Gyrus</t>
+  </si>
+  <si>
+    <t>Lat. Occipital Cortex Inf.</t>
+  </si>
+  <si>
+    <t>Supramarginal Gyrus Ant.</t>
+  </si>
+  <si>
+    <t>Inf. Temporal Gyrus Temporooccipital</t>
+  </si>
+  <si>
+    <t>Glasser (Exclusive Responsive)</t>
+  </si>
+  <si>
+    <t>6D, 6V, 8C, I6-8, IFJP, P9-46V, SCEF</t>
+  </si>
+  <si>
+    <t>6R, 6V, FEF, IFJP, PEF, SCEF</t>
+  </si>
+  <si>
+    <t>FST, MST</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>PHA3</t>
+  </si>
+  <si>
+    <t>TF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -211,6 +213,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -492,14 +503,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:N32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -527,7 +543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -541,7 +557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -555,7 +571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -569,7 +585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -583,7 +599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -597,7 +613,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -611,7 +627,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -625,7 +641,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -639,7 +655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -653,7 +669,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -667,7 +683,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -681,7 +697,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -695,7 +711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -709,7 +725,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -723,7 +739,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -737,7 +753,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -751,7 +767,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -765,7 +781,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -779,7 +795,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -793,204 +809,162 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>34</v>
       </c>
       <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
         <v>35</v>
       </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
         <v>38</v>
       </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
         <v>5</v>
       </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
         <v>10</v>
       </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
         <v>12</v>
       </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/results/tables/Table2.xlsx
+++ b/results/tables/Table2.xlsx
@@ -1,183 +1,163 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronwright/Documents/GitHub/aaronwriight/extended_language_network/results/tables/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7A353E-5278-9F42-A8D6-4888A7F70C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="60300" yWindow="5440" windowWidth="33040" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="46">
-  <si>
-    <t>Atlas</t>
-  </si>
-  <si>
-    <t>Lobe(s)</t>
-  </si>
-  <si>
-    <t>Hemisphere</t>
-  </si>
-  <si>
-    <t>Parcels</t>
-  </si>
-  <si>
-    <t>DKT (Selective)</t>
-  </si>
-  <si>
-    <t>Frontal</t>
-  </si>
-  <si>
-    <t>Left</t>
-  </si>
-  <si>
-    <t>Caudal Middle Frontal, Lateral Orbitofrontal, Medial Orbitofrontal, Pars Opercularis, Pars Orbitalis, Pars Triangularis, Precentral, Superior Frontal</t>
-  </si>
-  <si>
-    <t>Right</t>
-  </si>
-  <si>
-    <t>Medial Orbitofrontal, Pars Opercularis, Pars Triangularis, Precentral, Superior Frontal</t>
-  </si>
-  <si>
-    <t>Parietal</t>
-  </si>
-  <si>
-    <t>Postcentral, Supramarginal</t>
-  </si>
-  <si>
-    <t>Temporal</t>
-  </si>
-  <si>
-    <t>Inferior Temporal, Middle Temporal, Superior Temporal</t>
-  </si>
-  <si>
-    <t>Middle Temporal, Superior Temporal</t>
-  </si>
-  <si>
-    <t>HOCortical (Selective)</t>
-  </si>
-  <si>
-    <t>Frontal Medial Cortex, Frontal Operculum Cortex, Frontal Orbital Cortex, Frontal Pole, Inf. Frontal Gyrus Pars Opercularis, Inf. Frontal Gyrus Pars Triangularis, Juxtapositional Lobule Cortex, Mid. Frontal Gyrus, Precentral Gyrus, Sup. Frontal Gyrus</t>
-  </si>
-  <si>
-    <t>Frontal Medial Cortex, Frontal Orbital Cortex, Inf. Frontal Gyrus Pars Opercularis, Inf. Frontal Gyrus Pars Triangularis, Juxtapositional Lobule Cortex</t>
-  </si>
-  <si>
-    <t>Angular Gyrus, Central Opercular Cortex, Parietal Operculum Cortex, Supramarginal Gyrus Post.</t>
-  </si>
-  <si>
-    <t>Angular Gyrus, Supramarginal Gyrus Post.</t>
-  </si>
-  <si>
-    <t>Inf. Temporal Gyrus Ant., Inf. Temporal Gyrus Post., Mid. Temporal Gyrus Ant., Mid. Temporal Gyrus Post., Mid. Temporal Gyrus Temporooccipital, Planum Polare, Planum Temporale, Sup. Temporal Gyrus Ant., Sup. Temporal Gyrus Post., Temporal Fusiform Cortex Ant., Temporal Fusiform Cortex Post., Temporal Pole</t>
-  </si>
-  <si>
-    <t>Inf. Temporal Gyrus Ant., Mid. Temporal Gyrus Ant., Mid. Temporal Gyrus Post., Mid. Temporal Gyrus Temporooccipital, Planum Temporale, Sup. Temporal Gyrus Ant., Sup. Temporal Gyrus Post., Temporal Fusiform Cortex Ant., Temporal Pole</t>
-  </si>
-  <si>
-    <t>Glasser (Selective)</t>
-  </si>
-  <si>
-    <t>10D, 10R, 10V, 4, 44, 45, 47L, 47M, 47S, 55B, 6R, 8AV, 8BL, 8BM, 9A, 9M, 9P, FEF, FOP1, FOP4º, FOP5, IFJA, IFSA, IFSP, OP2-3†, OP4º, PEF, S32º, SFL</t>
-  </si>
-  <si>
-    <t>10V, 44, 45, 47M, 55B, 8BL, 9M, IFJA, IFSA, IFSP, OFC, SFL</t>
-  </si>
-  <si>
-    <t>Limbic</t>
-  </si>
-  <si>
-    <t>31PDº, 31PV, H, PEECº, PIRº, POFC, S32º</t>
-  </si>
-  <si>
-    <t>Occipital</t>
-  </si>
-  <si>
-    <t>PGI†, PHTº, TPOJ3</t>
-  </si>
-  <si>
-    <t>PHTº, TPOJ3</t>
-  </si>
-  <si>
-    <t>31PDº, 3B, OP2-3†, OP4º, PF, PFCM, PFOP, PGI†, PSLº</t>
-  </si>
-  <si>
-    <t>3B</t>
-  </si>
-  <si>
-    <t>A4, A5, FOP4º, OP2-3†, PBELT, PEECº, PGI†, PHTº, PI, PIRº, PSLº, RI, STGA, STSDA, STSDP, STSVA, STSVP, STV, TA2, TE1A, TE1M, TE1P, TE2P, TF, TGD, TGV, TPOJ1, TPOJ2</t>
-  </si>
-  <si>
-    <t>A4, A5, PHTº, STGA, STSDA, STSDP, STSVA, STSVP, STV, TA2, TE1A, TE1M, TE1P, TGD, TGV, TPOJ1, TPOJ2</t>
-  </si>
-  <si>
-    <t>HOCortical (Exclusive Responsive)</t>
-  </si>
-  <si>
-    <t>Precentral Gyrus</t>
-  </si>
-  <si>
-    <t>Lat. Occipital Cortex Inf.</t>
-  </si>
-  <si>
-    <t>Supramarginal Gyrus Ant.</t>
-  </si>
-  <si>
-    <t>Inf. Temporal Gyrus Temporooccipital</t>
-  </si>
-  <si>
-    <t>Glasser (Exclusive Responsive)</t>
-  </si>
-  <si>
-    <t>6D, 6V, 8C, I6-8, IFJP, P9-46V, SCEF</t>
-  </si>
-  <si>
-    <t>6R, 6V, FEF, IFJP, PEF, SCEF</t>
-  </si>
-  <si>
-    <t>FST, MST</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>PHA3</t>
-  </si>
-  <si>
-    <t>TF</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+  <si>
+    <t xml:space="preserve">Atlas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lobe(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hemisphere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parcels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DKT (Selective)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caudal Middle Frontal, Lateral Orbitofrontal, Medial Orbitofrontal, Pars Opercularis, Pars Orbitalis, Pars Triangularis, Precentral, Superior Frontal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medial Orbitofrontal, Pars Opercularis, Pars Triangularis, Precentral, Superior Frontal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parietal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postcentral, Supramarginal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temporal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inferior Temporal, Middle Temporal, Superior Temporal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Temporal, Superior Temporal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOCortical (Selective)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontal Medial Cortex, Frontal Operculum Cortex, Frontal Orbital Cortex, Frontal Pole, Inf. Frontal Gyrus Pars Opercularis, Inf. Frontal Gyrus Pars Triangularis, Juxtapositional Lobule Cortex, Mid. Frontal Gyrus, Precentral Gyrus, Sup. Frontal Gyrus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontal Medial Cortex, Frontal Orbital Cortex, Inf. Frontal Gyrus Pars Opercularis, Inf. Frontal Gyrus Pars Triangularis, Juxtapositional Lobule Cortex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular Gyrus, Central Opercular Cortex, Parietal Operculum Cortex, Supramarginal Gyrus Post.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular Gyrus, Supramarginal Gyrus Post.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inf. Temporal Gyrus Ant., Inf. Temporal Gyrus Post., Mid. Temporal Gyrus Ant., Mid. Temporal Gyrus Post., Mid. Temporal Gyrus Temporooccipital, Planum Polare, Planum Temporale, Sup. Temporal Gyrus Ant., Sup. Temporal Gyrus Post., Temporal Fusiform Cortex Ant., Temporal Fusiform Cortex Post., Temporal Pole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inf. Temporal Gyrus Ant., Mid. Temporal Gyrus Ant., Mid. Temporal Gyrus Post., Mid. Temporal Gyrus Temporooccipital, Planum Temporale, Sup. Temporal Gyrus Ant., Sup. Temporal Gyrus Post., Temporal Fusiform Cortex Ant., Temporal Pole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glasser (Selective)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10D, 10R, 10V, 4, 44, 45, 47L, 47M, 47S, 55B, 6R, 8AV, 8BL, 8BM, 9A, 9M, 9P, FEF, FOP1, FOP4º, FOP5, IFJA, IFSA, IFSP, OP2-3†, OP4º, PEF, S32º, SFL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10V, 44, 45, 47M, 55B, 8BL, 9M, IFJA, IFSA, IFSP, OFC, SFL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limbic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31PDº, 31PV, H, PEECº, PIRº, POFC, S32º</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occipital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PGI†, PHTº, TPOJ3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHTº, TPOJ3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31PDº, 3B, OP2-3†, OP4º, PF, PFCM, PFOP, PGI†, PSLº</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A4, A5, FOP4º, OP2-3†, PBELT, PEECº, PGI†, PHTº, PI, PIRº, PSLº, RI, STGA, STSDA, STSDP, STSVA, STSVP, STV, TA2, TE1A, TE1M, TE1P, TE2P, TF, TGD, TGV, TPOJ1, TPOJ2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A4, A5, PHTº, STGA, STSDA, STSDP, STSVA, STSVP, STV, TA2, TE1A, TE1M, TE1P, TGD, TGV, TPOJ1, TPOJ2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOCortical (Exclusive Responsive)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precentral Gyrus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lat. Occipital Cortex Inf.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supramarginal Gyrus Ant.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inf. Temporal Gyrus Temporooccipital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glasser (Exclusive Responsive)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6D, 6V, 8C, I6-8, IFJP, P9-46V, SCEF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6R, 6V, FEF, IFJP, PEF, SCEF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FST, MST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -213,15 +193,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -503,19 +474,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N32"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="42.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -543,7 +509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -557,7 +523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -571,7 +537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -585,7 +551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -599,7 +565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -613,7 +579,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -627,7 +593,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -641,7 +607,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -655,7 +621,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -669,7 +635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -683,7 +649,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -697,7 +663,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -711,7 +677,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -725,7 +691,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -739,7 +705,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -753,7 +719,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -767,7 +733,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -781,7 +747,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -795,7 +761,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -809,7 +775,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -823,7 +789,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -837,7 +803,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -851,7 +817,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -865,7 +831,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -879,7 +845,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -893,7 +859,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -907,7 +873,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -921,7 +887,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -935,7 +901,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -949,7 +915,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -965,6 +931,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>